--- a/wb.xlsx
+++ b/wb.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -47,8 +47,15 @@
       <name val="JetBrains Mono"/>
       <charset val="1"/>
       <family val="3"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,7 +85,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -86,6 +93,9 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -93,6 +103,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -353,140 +366,185 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="B2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="17.57" customWidth="1" style="3" min="1" max="1"/>
-    <col width="20.49" customWidth="1" style="3" min="2" max="2"/>
-    <col width="20.92" customWidth="1" style="3" min="4" max="4"/>
-    <col width="13.34" customWidth="1" style="3" min="6" max="6"/>
+    <col width="17.57" customWidth="1" style="4" min="1" max="1"/>
+    <col width="20.49" customWidth="1" style="4" min="2" max="3"/>
+    <col width="19.29" customWidth="1" style="4" min="4" max="4"/>
+    <col width="20.92" customWidth="1" style="4" min="5" max="5"/>
+    <col width="13.34" customWidth="1" style="4" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="4">
-      <c r="A1" s="5" t="n">
+    <row r="1" ht="12.75" customHeight="1" s="5">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>артикул</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>цена на wb</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>цена без СПП</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>продано за 30 дней</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>отзывы</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="5">
+      <c r="A2" s="6" t="n"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="5">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>Группа 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="5">
+      <c r="A4" s="6" t="n">
         <v>183815992</v>
       </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Группа 1</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>мин</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>макс</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>среднее</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="4">
-      <c r="A2" s="5" t="n">
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="5">
+      <c r="A5" s="6" t="n">
         <v>177819726</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B5" t="n">
+        <v>128151</v>
+      </c>
+      <c r="C5" t="n">
         <v>143990</v>
       </c>
-      <c r="D2" s="3">
-        <f>MAX(B1:B3)</f>
-        <v/>
-      </c>
-      <c r="E2" s="3">
-        <f>MIN(B1:B3)</f>
-        <v/>
-      </c>
-      <c r="F2" s="3">
-        <f>AVERAGE(B1:B3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="4">
-      <c r="A3" s="5" t="n">
+      <c r="D5" t="n">
+        <v>147190</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="5">
+      <c r="A6" s="6" t="n">
         <v>177838392</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B6" t="n">
+        <v>140976</v>
+      </c>
+      <c r="C6" t="n">
         <v>158400</v>
       </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="4">
-      <c r="A4" s="5" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="4">
-      <c r="A5" s="5" t="n">
+      <c r="D6" t="n">
+        <v>295200</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="5">
+      <c r="A7" s="6" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="5">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Группа 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="5">
+      <c r="A9" s="6" t="n">
         <v>177120725</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B9" t="n">
+        <v>100918</v>
+      </c>
+      <c r="C9" t="n">
         <v>113391</v>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Группа 2</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>мин</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>макс</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>среднее</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="4">
-      <c r="A6" s="5" t="n">
+      <c r="D9" t="n">
+        <v>1273212</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="5">
+      <c r="A10" s="6" t="n">
         <v>182564406</v>
       </c>
-      <c r="B6" t="n">
-        <v>21449</v>
-      </c>
-      <c r="D6" s="3">
-        <f>MAX(B5:B7)</f>
-        <v/>
-      </c>
-      <c r="E6" s="3">
-        <f>MIN(B5:B7)</f>
-        <v/>
-      </c>
-      <c r="F6" s="3">
-        <f>AVERAGE(B5:B7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="4">
-      <c r="A7" s="5" t="n">
+      <c r="B10" t="n">
+        <v>18948</v>
+      </c>
+      <c r="C10" t="n">
+        <v>21290</v>
+      </c>
+      <c r="D10" t="n">
+        <v>564940</v>
+      </c>
+      <c r="E10" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="5">
+      <c r="A11" s="6" t="n">
         <v>177900891</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B11" t="n">
+        <v>75285</v>
+      </c>
+      <c r="C11" t="n">
         <v>84590</v>
       </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="4">
-      <c r="A8" s="5" t="n">
+      <c r="D11" t="n">
+        <v>422950</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="5">
+      <c r="A12" s="6" t="n">
         <v>173142297</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B12" t="n">
+        <v>89670</v>
+      </c>
+      <c r="C12" t="n">
         <v>100753</v>
       </c>
-    </row>
+      <c r="D12" t="n">
+        <v>588393</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="5">
+      <c r="A13" s="7" t="n"/>
+    </row>
+    <row r="1048576" ht="12.75" customHeight="1" s="5"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/wb.xlsx
+++ b/wb.xlsx
@@ -17,12 +17,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
@@ -49,13 +49,6 @@
       <family val="3"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,7 +78,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -95,17 +88,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -189,174 +176,285 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -366,75 +464,75 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="B2:E13"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="17.57" customWidth="1" style="4" min="1" max="1"/>
-    <col width="20.49" customWidth="1" style="4" min="2" max="3"/>
-    <col width="19.29" customWidth="1" style="4" min="4" max="4"/>
-    <col width="20.92" customWidth="1" style="4" min="5" max="5"/>
-    <col width="13.34" customWidth="1" style="4" min="7" max="7"/>
+    <col width="17.57" customWidth="1" style="3" min="1" max="1"/>
+    <col width="20.49" customWidth="1" style="3" min="2" max="3"/>
+    <col width="19.29" customWidth="1" style="3" min="4" max="4"/>
+    <col width="20.92" customWidth="1" style="3" min="5" max="5"/>
+    <col width="13.34" customWidth="1" style="3" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="5">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="4">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>артикул</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>цена на wb</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>цена без СПП</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>продано за 30 дней</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>отзывы</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="5">
-      <c r="A2" s="6" t="n"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" s="5">
-      <c r="A3" s="6" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="4">
+      <c r="A2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="4">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Группа 1</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="5">
-      <c r="A4" s="6" t="n">
+    <row r="4" ht="15" customHeight="1" s="4">
+      <c r="A4" s="5" t="n">
         <v>183815992</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2125101</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="5">
-      <c r="A5" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="4">
+      <c r="A5" s="5" t="n">
         <v>177819726</v>
       </c>
       <c r="B5" t="n">
-        <v>128151</v>
+        <v>129591</v>
       </c>
       <c r="C5" t="n">
         <v>143990</v>
@@ -446,12 +544,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="5">
-      <c r="A6" s="6" t="n">
+    <row r="6" ht="15" customHeight="1" s="4">
+      <c r="A6" s="5" t="n">
         <v>177838392</v>
       </c>
       <c r="B6" t="n">
-        <v>140976</v>
+        <v>142560</v>
       </c>
       <c r="C6" t="n">
         <v>158400</v>
@@ -463,88 +561,136 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="5">
-      <c r="A7" s="6" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="5">
-      <c r="A8" s="6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="4">
+      <c r="A7" s="5" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="4">
+      <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Группа 2</t>
+          <t>iphone</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="5">
-      <c r="A9" s="6" t="n">
+    <row r="9" ht="15" customHeight="1" s="4">
+      <c r="A9" s="5" t="n">
         <v>177120725</v>
       </c>
       <c r="B9" t="n">
-        <v>100918</v>
+        <v>99532</v>
       </c>
       <c r="C9" t="n">
-        <v>113391</v>
+        <v>110592</v>
       </c>
       <c r="D9" t="n">
-        <v>1273212</v>
+        <v>1093312</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="5">
-      <c r="A10" s="6" t="n">
+    <row r="10" ht="15" customHeight="1" s="4">
+      <c r="A10" s="5" t="n">
         <v>182564406</v>
       </c>
       <c r="B10" t="n">
-        <v>18948</v>
+        <v>19161</v>
       </c>
       <c r="C10" t="n">
         <v>21290</v>
       </c>
       <c r="D10" t="n">
-        <v>564940</v>
+        <v>1051732</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="5">
-      <c r="A11" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="4">
+      <c r="A11" s="5" t="n">
         <v>177900891</v>
       </c>
       <c r="B11" t="n">
-        <v>75285</v>
+        <v>76131</v>
       </c>
       <c r="C11" t="n">
         <v>84590</v>
       </c>
       <c r="D11" t="n">
-        <v>422950</v>
+        <v>592130</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="5">
-      <c r="A12" s="6" t="n">
+    <row r="12" ht="15" customHeight="1" s="4">
+      <c r="A12" s="5" t="n">
         <v>173142297</v>
       </c>
       <c r="B12" t="n">
-        <v>89670</v>
+        <v>90677</v>
       </c>
       <c r="C12" t="n">
         <v>100753</v>
       </c>
       <c r="D12" t="n">
-        <v>588393</v>
+        <v>793929</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="5">
-      <c r="A13" s="7" t="n"/>
-    </row>
-    <row r="1048576" ht="12.75" customHeight="1" s="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="4">
+      <c r="A13" s="3" t="n">
+        <v>172669263</v>
+      </c>
+      <c r="B13" t="n">
+        <v>35456</v>
+      </c>
+      <c r="C13" t="n">
+        <v>36180</v>
+      </c>
+      <c r="D13" t="n">
+        <v>668520</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="4">
+      <c r="A14" s="3" t="n">
+        <v>177900627</v>
+      </c>
+      <c r="B14" t="n">
+        <v>76131</v>
+      </c>
+      <c r="C14" t="n">
+        <v>84590</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9447979</v>
+      </c>
+      <c r="E14" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" s="4">
+      <c r="A15" s="3" t="n">
+        <v>169812214</v>
+      </c>
+      <c r="B15" t="n">
+        <v>26965</v>
+      </c>
+      <c r="C15" t="n">
+        <v>29961</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6636569</v>
+      </c>
+      <c r="E15" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1048576" ht="12.75" customHeight="1" s="4"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/wb.xlsx
+++ b/wb.xlsx
@@ -343,10 +343,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="B1:L5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
@@ -360,56 +360,240 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="3">
-      <c r="A1" s="2" t="n">
-        <v>237826379</v>
-      </c>
       <c r="B1" s="2" t="n">
-        <v>45137</v>
+        <v>124752</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>160523</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>256 ГБ</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>черный</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>256 ГБ</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>8 ГБ</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>nano SIM+eSIM</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Смартфон айфон 15 про макс 256 ГБ</t>
+        </is>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="3">
-      <c r="A2" s="2" t="n">
-        <v>229262284</v>
-      </c>
       <c r="B2" s="2" t="n">
-        <v>53690</v>
+        <v>143443</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>134976</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>256 ГБ</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>256 ГБ</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>8 ГБ</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 15 Pro Max</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Смартфон айфон 15 про макс 256 ГБ</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" s="2" t="n">
-        <v>178767167</v>
-      </c>
       <c r="B3" s="2" t="n">
         <v>128421</v>
       </c>
+      <c r="C3" s="2" t="n">
+        <v>152049</v>
+      </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>7</v>
       </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>256 ГБ</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>синий</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>256 ГБ</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>8 ГБ</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>nano SIM+eSIM</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Смартфон айфон 15 про макс 256 ГБ</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="2" t="n">
-        <v>227735380</v>
-      </c>
       <c r="B4" s="2" t="n">
-        <v>83709</v>
+        <v>128421</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>149837</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>256 ГБ</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>черный</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>256 ГБ</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8 ГБ</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 15 Pro Max</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>Телефон iPhone 15 Pro Max 256 ГБ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="B5" s="2" t="n">
+        <v>143443</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>167685</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>256 ГБ</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>256 ГБ</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8 ГБ</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 15 Pro Max</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>Смартфон айфон 15 про макс 256 ГБ</t>
+        </is>
+      </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="3"/>
     <row r="6" ht="15" customHeight="1" s="3"/>
     <row r="7" ht="15" customHeight="1" s="3"/>
     <row r="8" ht="15" customHeight="1" s="3"/>
